--- a/gSpan.xlsx
+++ b/gSpan.xlsx
@@ -14,9 +14,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Test 4 with input graphs" sheetId="4" r:id="rId4"/>
-    <sheet name="Test 7 with input graphs" sheetId="5" r:id="rId5"/>
+    <sheet name="Test 20" sheetId="7" r:id="rId3"/>
+    <sheet name="Test 50" sheetId="6" r:id="rId4"/>
+    <sheet name="Test 100" sheetId="3" r:id="rId5"/>
+    <sheet name="Test 4 with input graphs" sheetId="4" r:id="rId6"/>
+    <sheet name="Test 7 with input graphs" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="268">
   <si>
     <t>Mã số</t>
   </si>
@@ -860,12 +862,177 @@
   <si>
     <t>16 + 0</t>
   </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0, 1, 6,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>51</t>
+    </r>
+  </si>
+  <si>
+    <t>Test50.txt</t>
+  </si>
+  <si>
+    <t>2, 14</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 20, 23</t>
+  </si>
+  <si>
+    <t>12, 16</t>
+  </si>
+  <si>
+    <t>5, 10, 11</t>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0, 1, 6,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12</t>
+    </r>
+  </si>
+  <si>
+    <t>1, 2, 9</t>
+  </si>
+  <si>
+    <t>2, 0</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 10, 11, 13, 17</t>
+  </si>
+  <si>
+    <r>
+      <t>4, 5, 10, 11, 13,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 17</t>
+    </r>
+  </si>
+  <si>
+    <t>1, 2, 7, 14, 15, 18, 19</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 8</t>
+  </si>
+  <si>
+    <t>5, 8, 10, 11, 12, 13</t>
+  </si>
+  <si>
+    <t>5, 10, 11, 12, 13, 16</t>
+  </si>
+  <si>
+    <t>Test20.txt</t>
+  </si>
+  <si>
+    <t>1, 2, 7</t>
+  </si>
+  <si>
+    <t>6, 3</t>
+  </si>
+  <si>
+    <t>5, 0, 1, 2, 3</t>
+  </si>
+  <si>
+    <t>5, 7</t>
+  </si>
+  <si>
+    <t>8, 9, 11, 12</t>
+  </si>
+  <si>
+    <t>5, 6</t>
+  </si>
+  <si>
+    <t>4, 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,6 +1132,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1035,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1216,28 +1397,156 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="66">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1373,6 +1682,24 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1534,13 +1861,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G11" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G11" totalsRowShown="0" headerRowDxfId="65">
   <tableColumns count="6">
-    <tableColumn id="1" name="Mã số" dataDxfId="53"/>
+    <tableColumn id="1" name="Mã số" dataDxfId="64"/>
     <tableColumn id="2" name="Họ tên"/>
     <tableColumn id="3" name="Giới tính "/>
-    <tableColumn id="4" name="Bạn bè" dataDxfId="52"/>
-    <tableColumn id="5" name="Người thân" dataDxfId="51"/>
+    <tableColumn id="4" name="Bạn bè" dataDxfId="63"/>
+    <tableColumn id="5" name="Người thân" dataDxfId="62"/>
     <tableColumn id="6" name="UNETI"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1548,38 +1875,50 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table17816" displayName="Table17816" ref="B31:E35" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table17812" displayName="Table17812" ref="B23:E28" totalsRowShown="0" headerRowDxfId="20">
   <tableColumns count="4">
-    <tableColumn id="1" name="Mã số" dataDxfId="11"/>
+    <tableColumn id="1" name="Mã số" dataDxfId="19"/>
     <tableColumn id="2" name="Họ tên"/>
     <tableColumn id="3" name="Giới tính "/>
-    <tableColumn id="4" name="Công tác tại UNETI" dataDxfId="10"/>
+    <tableColumn id="4" name="Họ hàng" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table17817" displayName="Table17817" ref="B38:F43" totalsRowShown="0" headerRowDxfId="9">
-  <tableColumns count="5">
-    <tableColumn id="1" name="Mã số" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table17816" displayName="Table17816" ref="B31:E35" totalsRowShown="0" headerRowDxfId="17">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Mã số" dataDxfId="16"/>
     <tableColumn id="2" name="Họ tên"/>
     <tableColumn id="3" name="Giới tính "/>
-    <tableColumn id="4" name="Thích nghe nhạc" dataDxfId="7"/>
-    <tableColumn id="5" name="Chăm sóc sức khỏe tại Viện Dệt may" dataDxfId="6"/>
+    <tableColumn id="4" name="Công tác tại UNETI" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table17817" displayName="Table17817" ref="B38:F43" totalsRowShown="0" headerRowDxfId="14">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Mã số" dataDxfId="13"/>
+    <tableColumn id="2" name="Họ tên"/>
+    <tableColumn id="3" name="Giới tính "/>
+    <tableColumn id="4" name="Thích nghe nhạc" dataDxfId="12"/>
+    <tableColumn id="5" name="Chăm sóc sức khỏe tại Viện Dệt may" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B14:G23" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B14:G23" totalsRowShown="0" headerRowDxfId="61">
   <tableColumns count="6">
-    <tableColumn id="1" name="Mã số" dataDxfId="49"/>
+    <tableColumn id="1" name="Mã số" dataDxfId="60"/>
     <tableColumn id="2" name="Họ tên"/>
     <tableColumn id="3" name="Giới tính "/>
-    <tableColumn id="4" name="Bạn bè" dataDxfId="48"/>
-    <tableColumn id="5" name="Người thân" dataDxfId="47"/>
+    <tableColumn id="4" name="Bạn bè" dataDxfId="59"/>
+    <tableColumn id="5" name="Người thân" dataDxfId="58"/>
     <tableColumn id="6" name="UNETI"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1587,13 +1926,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B27:G50" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B27:G50" totalsRowShown="0" headerRowDxfId="57">
   <tableColumns count="6">
-    <tableColumn id="1" name="Mã số" dataDxfId="45"/>
+    <tableColumn id="1" name="Mã số" dataDxfId="56"/>
     <tableColumn id="2" name="Họ tên"/>
     <tableColumn id="3" name="Giới tính "/>
-    <tableColumn id="4" name="Bạn bè" dataDxfId="44"/>
-    <tableColumn id="5" name="Người thân" dataDxfId="43"/>
+    <tableColumn id="4" name="Bạn bè" dataDxfId="55"/>
+    <tableColumn id="5" name="Người thân" dataDxfId="54"/>
     <tableColumn id="6" name="UNETI"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1601,7 +1940,41 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="B2:J103" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="B2:J103" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <tableColumns count="9">
+    <tableColumn id="1" name="Mã số" dataDxfId="51"/>
+    <tableColumn id="2" name="Họ tên" dataDxfId="50"/>
+    <tableColumn id="3" name="Giới tính " dataDxfId="49"/>
+    <tableColumn id="9" name="Ảnh" dataDxfId="48"/>
+    <tableColumn id="4" name="Bạn bè" dataDxfId="47"/>
+    <tableColumn id="5" name="Họ hàng" dataDxfId="46"/>
+    <tableColumn id="6" name="Cùng công tác ở Uneti" dataDxfId="45"/>
+    <tableColumn id="7" name="Cùng sở thích nghe nhạc" dataDxfId="44"/>
+    <tableColumn id="8" name="Cùng chăm sóc sức khỏe ở Viện Dệt May" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1457" displayName="Table1457" ref="B2:J23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <tableColumns count="9">
+    <tableColumn id="1" name="Mã số" dataDxfId="8"/>
+    <tableColumn id="2" name="Họ tên" dataDxfId="7"/>
+    <tableColumn id="3" name="Giới tính " dataDxfId="6"/>
+    <tableColumn id="9" name="Ảnh" dataDxfId="5"/>
+    <tableColumn id="4" name="Bạn bè" dataDxfId="4"/>
+    <tableColumn id="5" name="Họ hàng" dataDxfId="3"/>
+    <tableColumn id="6" name="Cùng công tác ở Uneti" dataDxfId="2"/>
+    <tableColumn id="7" name="Cùng sở thích nghe nhạc" dataDxfId="1"/>
+    <tableColumn id="8" name="Cùng chăm sóc sức khỏe ở Viện Dệt May" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="B2:J103" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <tableColumns count="9">
     <tableColumn id="1" name="Mã số" dataDxfId="40"/>
     <tableColumn id="2" name="Họ tên" dataDxfId="39"/>
@@ -1617,47 +1990,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="B2:J103" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <tableColumns count="9">
-    <tableColumn id="1" name="Mã số" dataDxfId="29"/>
-    <tableColumn id="2" name="Họ tên" dataDxfId="28"/>
-    <tableColumn id="3" name="Giới tính " dataDxfId="27"/>
-    <tableColumn id="9" name="Ảnh" dataDxfId="5"/>
-    <tableColumn id="4" name="Bạn bè" dataDxfId="4"/>
-    <tableColumn id="5" name="Họ hàng" dataDxfId="3"/>
-    <tableColumn id="6" name="Cùng công tác ở Uneti" dataDxfId="2"/>
-    <tableColumn id="7" name="Cùng sở thích nghe nhạc" dataDxfId="1"/>
-    <tableColumn id="8" name="Cùng chăm sóc sức khỏe ở Viện Dệt May" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1710" displayName="Table1710" ref="B3:I8" totalsRowShown="0" headerRowDxfId="26">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1710" displayName="Table1710" ref="B3:I8" totalsRowShown="0" headerRowDxfId="31">
   <tableColumns count="8">
-    <tableColumn id="1" name="Mã số" dataDxfId="25"/>
+    <tableColumn id="1" name="Mã số" dataDxfId="30"/>
     <tableColumn id="2" name="Họ tên"/>
     <tableColumn id="3" name="Giới tính "/>
-    <tableColumn id="4" name="Bạn bè" dataDxfId="24"/>
-    <tableColumn id="5" name="Họ hàng" dataDxfId="23"/>
-    <tableColumn id="6" name="Công tác tại UNETI"/>
-    <tableColumn id="7" name="Thích nghe nhạc"/>
-    <tableColumn id="8" name="Chăm sóc sức khỏe tại Viện Dệt may"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table178" displayName="Table178" ref="B3:I12" totalsRowShown="0" headerRowDxfId="22">
-  <tableColumns count="8">
-    <tableColumn id="1" name="Mã số" dataDxfId="21"/>
-    <tableColumn id="2" name="Họ tên"/>
-    <tableColumn id="3" name="Giới tính "/>
-    <tableColumn id="4" name="Bạn bè" dataDxfId="20"/>
-    <tableColumn id="5" name="Họ hàng" dataDxfId="19"/>
+    <tableColumn id="4" name="Bạn bè" dataDxfId="29"/>
+    <tableColumn id="5" name="Họ hàng" dataDxfId="28"/>
     <tableColumn id="6" name="Công tác tại UNETI"/>
     <tableColumn id="7" name="Thích nghe nhạc"/>
     <tableColumn id="8" name="Chăm sóc sức khỏe tại Viện Dệt may"/>
@@ -1667,24 +2007,28 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table17811" displayName="Table17811" ref="B15:E20" totalsRowShown="0" headerRowDxfId="18">
-  <tableColumns count="4">
-    <tableColumn id="1" name="Mã số" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table178" displayName="Table178" ref="B3:I12" totalsRowShown="0" headerRowDxfId="27">
+  <tableColumns count="8">
+    <tableColumn id="1" name="Mã số" dataDxfId="26"/>
     <tableColumn id="2" name="Họ tên"/>
     <tableColumn id="3" name="Giới tính "/>
-    <tableColumn id="4" name="Bạn bè" dataDxfId="16"/>
+    <tableColumn id="4" name="Bạn bè" dataDxfId="25"/>
+    <tableColumn id="5" name="Họ hàng" dataDxfId="24"/>
+    <tableColumn id="6" name="Công tác tại UNETI"/>
+    <tableColumn id="7" name="Thích nghe nhạc"/>
+    <tableColumn id="8" name="Chăm sóc sức khỏe tại Viện Dệt may"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table17812" displayName="Table17812" ref="B23:E28" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table17811" displayName="Table17811" ref="B15:E20" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="4">
-    <tableColumn id="1" name="Mã số" dataDxfId="14"/>
+    <tableColumn id="1" name="Mã số" dataDxfId="22"/>
     <tableColumn id="2" name="Họ tên"/>
     <tableColumn id="3" name="Giới tính "/>
-    <tableColumn id="4" name="Họ hàng" dataDxfId="13"/>
+    <tableColumn id="4" name="Bạn bè" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3278,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,10 +5658,4487 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="8.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="7" customWidth="1"/>
+    <col min="6" max="10" width="24.7109375" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="41">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="73">
+        <v>14</v>
+      </c>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="41">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="41">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="73">
+        <v>17</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="73">
+        <v>7</v>
+      </c>
+      <c r="J5" s="70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="41">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="41">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="70">
+        <v>7</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="41">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="70">
+        <v>7</v>
+      </c>
+      <c r="I8" s="70">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="41">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="41">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="41">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="I11" s="70">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="41">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="41">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="41">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="41">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="70">
+        <v>13</v>
+      </c>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="41">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="41">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="41">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="41">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="41">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="41">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="41">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="21">
+        <v>0</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="25">
+        <v>1</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="72">
+        <v>2</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="21">
+        <v>2</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="23"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="25">
+        <v>3</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="21">
+        <v>4</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="71">
+        <v>7</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="25">
+        <v>5</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="21">
+        <v>6</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="25">
+        <v>7</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="21">
+        <v>8</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="25">
+        <v>9</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40" s="21">
+        <v>0</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="71"/>
+      <c r="G40" s="62"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41" s="25">
+        <v>1</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="63"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42" s="21">
+        <v>2</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="71">
+        <v>6</v>
+      </c>
+      <c r="G42" s="77">
+        <v>6</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43" s="25">
+        <v>3</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="G43" s="63"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44" s="21">
+        <v>4</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="77">
+        <v>6</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45" s="25">
+        <v>5</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="72">
+        <v>1</v>
+      </c>
+      <c r="G45" s="63"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46" s="21">
+        <v>6</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="72"/>
+      <c r="G46" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47" s="25">
+        <v>7</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="71">
+        <v>0</v>
+      </c>
+      <c r="G47" s="62"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+      <c r="C49" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51" s="21">
+        <v>0</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="23">
+        <v>6</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52" s="25">
+        <v>1</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="27">
+        <v>6</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53" s="21">
+        <v>2</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="23">
+        <v>6</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54" s="25">
+        <v>3</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="27">
+        <v>6</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55" s="21">
+        <v>4</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="23">
+        <v>7</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56" s="25">
+        <v>5</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="72">
+        <v>6</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57" s="21">
+        <v>6</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58" s="25">
+        <v>7</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+      <c r="C60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60">
+        <v>13</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62" s="21">
+        <v>0</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="64"/>
+      <c r="H62" s="74">
+        <v>8</v>
+      </c>
+      <c r="I62"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63" s="25">
+        <v>1</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="75">
+        <v>10</v>
+      </c>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64" s="21">
+        <v>2</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="74">
+        <v>10</v>
+      </c>
+      <c r="G64" s="64"/>
+      <c r="H64" s="74"/>
+      <c r="I64"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65" s="21">
+        <v>3</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65"/>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66" s="25">
+        <v>4</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="H66" s="23"/>
+      <c r="I66"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67" s="21">
+        <v>5</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67"/>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68" s="21">
+        <v>6</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="G68" s="23"/>
+      <c r="H68" s="71">
+        <v>7</v>
+      </c>
+      <c r="I68"/>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69" s="25">
+        <v>7</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="27"/>
+      <c r="G69" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="H69" s="27"/>
+      <c r="I69"/>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70" s="21">
+        <v>8</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70"/>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71" s="21">
+        <v>9</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72" s="25">
+        <v>10</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73" s="21">
+        <v>11</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="B74" s="21">
+        <v>12</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J146"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="5" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="12" max="14" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="62"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="63"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
+        <v>2</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="25">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="21">
+        <v>4</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="62"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="25">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="63"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
+        <v>6</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>7</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27">
+        <v>3</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="21">
+        <v>8</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64">
+        <v>2</v>
+      </c>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="63"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="21">
+        <v>10</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="23">
+        <v>2</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <v>11</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="27">
+        <v>17</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27">
+        <v>7</v>
+      </c>
+      <c r="J14" s="63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
+        <v>12</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23">
+        <v>13</v>
+      </c>
+      <c r="J15" s="62"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="25">
+        <v>13</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="21">
+        <v>14</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="25">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="21">
+        <v>16</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64">
+        <v>26</v>
+      </c>
+      <c r="I19" s="64">
+        <v>26</v>
+      </c>
+      <c r="J19" s="65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="25">
+        <v>17</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="27">
+        <v>1</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="25">
+        <v>19</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="27">
+        <v>0</v>
+      </c>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="21">
+        <v>20</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="25">
+        <v>21</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="27">
+        <v>0</v>
+      </c>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="21">
+        <v>22</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0</v>
+      </c>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="25">
+        <v>23</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="27">
+        <v>0</v>
+      </c>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="21">
+        <v>24</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="25">
+        <v>25</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="27">
+        <v>1</v>
+      </c>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" s="68"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="21">
+        <v>26</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23">
+        <v>2</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="62"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="25">
+        <v>27</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="27">
+        <v>0</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="63"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="21">
+        <v>28</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="62"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="25">
+        <v>29</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="66">
+        <v>30</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="63"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="21">
+        <v>30</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0</v>
+      </c>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="62"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="25">
+        <v>31</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="27">
+        <v>2</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="63"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="21">
+        <v>32</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23">
+        <v>2</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="62"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="25">
+        <v>33</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27">
+        <v>2</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="63"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="21">
+        <v>34</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23">
+        <v>28</v>
+      </c>
+      <c r="J37" s="62"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="25">
+        <v>35</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27">
+        <v>2</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="63"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="21">
+        <v>36</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="62">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="25">
+        <v>37</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27">
+        <v>2</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="63"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="21">
+        <v>38</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23">
+        <v>2</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="62"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="25">
+        <v>39</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27">
+        <v>2</v>
+      </c>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="63"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="21">
+        <v>40</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23">
+        <v>2</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="62"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="25">
+        <v>41</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27">
+        <v>40</v>
+      </c>
+      <c r="J44" s="63">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="21">
+        <v>42</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23">
+        <v>2</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="62"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="25">
+        <v>43</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27">
+        <v>2</v>
+      </c>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="63"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="21">
+        <v>44</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="62"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="25">
+        <v>45</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27">
+        <v>2</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="63"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="21">
+        <v>46</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23">
+        <v>3</v>
+      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="62"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="25">
+        <v>47</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27">
+        <v>3</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="63"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="21">
+        <v>48</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="62"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="25">
+        <v>49</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27">
+        <v>3</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="63"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="21">
+        <v>0</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="25">
+        <v>1</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G57" s="27"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="21">
+        <v>2</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="G58" s="64"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="21">
+        <v>3</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="25">
+        <v>4</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="21">
+        <v>5</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="21">
+        <v>6</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="25">
+        <v>7</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="21">
+        <v>8</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="21">
+        <v>9</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="23">
+        <v>2</v>
+      </c>
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="25">
+        <v>10</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="27">
+        <v>14</v>
+      </c>
+      <c r="G66" s="27"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="21">
+        <v>11</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G67" s="23"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="21">
+        <v>12</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="23">
+        <v>0</v>
+      </c>
+      <c r="G68" s="64"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="25">
+        <v>13</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="27">
+        <v>0</v>
+      </c>
+      <c r="G69" s="67"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="21">
+        <v>14</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" s="27">
+        <v>1</v>
+      </c>
+      <c r="G70" s="67"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="21">
+        <v>15</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="23">
+        <v>0</v>
+      </c>
+      <c r="G71" s="64"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="25">
+        <v>16</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="27">
+        <v>0</v>
+      </c>
+      <c r="G72" s="67"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="21">
+        <v>17</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" s="23">
+        <v>0</v>
+      </c>
+      <c r="G73" s="64"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="21">
+        <v>18</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74" s="27">
+        <v>0</v>
+      </c>
+      <c r="G74" s="67"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="25">
+        <v>19</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" s="23">
+        <v>0</v>
+      </c>
+      <c r="G75" s="64"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="21">
+        <v>20</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" s="27">
+        <v>0</v>
+      </c>
+      <c r="G76" s="67"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="21">
+        <v>21</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F77" s="23">
+        <v>0</v>
+      </c>
+      <c r="G77" s="64"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="25">
+        <v>22</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F78" s="27">
+        <v>1</v>
+      </c>
+      <c r="G78" s="67"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="21">
+        <v>23</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="21">
+        <v>24</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" s="27">
+        <v>0</v>
+      </c>
+      <c r="G80" s="27"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="25">
+        <v>25</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F81" s="23">
+        <v>0</v>
+      </c>
+      <c r="G81" s="23"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="21">
+        <v>26</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" s="23">
+        <v>0</v>
+      </c>
+      <c r="G82" s="23"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="25">
+        <v>27</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" s="66">
+        <v>26</v>
+      </c>
+      <c r="G83" s="69"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B86" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="21">
+        <v>0</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87" s="23"/>
+      <c r="G87" s="64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="25">
+        <v>1</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="21">
+        <v>2</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F89" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="G89" s="23"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="25">
+        <v>3</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G90" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="21">
+        <v>4</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G91" s="23"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="25">
+        <v>5</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="21">
+        <v>6</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="25">
+        <v>7</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F94" s="27">
+        <v>3</v>
+      </c>
+      <c r="G94" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="21">
+        <v>8</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="25">
+        <v>9</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="21">
+        <v>10</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="25">
+        <v>11</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F98" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="G98" s="67"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="21">
+        <v>12</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" s="64"/>
+      <c r="G99" s="64"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="25">
+        <v>13</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" s="64">
+        <v>15</v>
+      </c>
+      <c r="G100" s="64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="21">
+        <v>14</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="25">
+        <v>15</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" s="23">
+        <v>2</v>
+      </c>
+      <c r="G102" s="23"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="21">
+        <v>16</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="25"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="69"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B107" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F107" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="21">
+        <v>0</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" s="65" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="25">
+        <v>1</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F109" s="63"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="21">
+        <v>2</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F110" s="62"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="25">
+        <v>3</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F111" s="63"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="21">
+        <v>4</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F112" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="25">
+        <v>5</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F113" s="62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="21">
+        <v>6</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F114" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="25">
+        <v>7</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F115" s="65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="21">
+        <v>8</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F116" s="65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="25">
+        <v>9</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F117" s="62"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="21">
+        <v>10</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="22"/>
+      <c r="F118" s="62"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="25">
+        <v>11</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="22"/>
+      <c r="F119" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="21">
+        <v>12</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="26"/>
+      <c r="F120" s="63"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="25">
+        <v>13</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="26"/>
+      <c r="F121" s="63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B124" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G124" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H124" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I124" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="25">
+        <v>0</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="21">
+        <v>1</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="23"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="25">
+        <v>2</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="25">
+        <v>3</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="23"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="21">
+        <v>4</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F129" s="27">
+        <v>1</v>
+      </c>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="25">
+        <v>5</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="22"/>
+      <c r="F130" s="23">
+        <v>1</v>
+      </c>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="25">
+        <v>6</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="26"/>
+      <c r="F131" s="27">
+        <v>1</v>
+      </c>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="21">
+        <v>7</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="22"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="25">
+        <v>8</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="26"/>
+      <c r="F133" s="27">
+        <v>1</v>
+      </c>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="25">
+        <v>9</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="26"/>
+      <c r="F134" s="27">
+        <v>1</v>
+      </c>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="21">
+        <v>10</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="22"/>
+      <c r="F135" s="23">
+        <v>1</v>
+      </c>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="23"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="25">
+        <v>11</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="26"/>
+      <c r="F136" s="27">
+        <v>1</v>
+      </c>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="25">
+        <v>12</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="22"/>
+      <c r="F137" s="23">
+        <v>1</v>
+      </c>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="23"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="21">
+        <v>13</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="26"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="25">
+        <v>14</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="22"/>
+      <c r="F139" s="23">
+        <v>1</v>
+      </c>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="23"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="25">
+        <v>15</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="26"/>
+      <c r="F140" s="27">
+        <v>1</v>
+      </c>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="21">
+        <v>16</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="22"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="64">
+        <v>18</v>
+      </c>
+      <c r="H141" s="23"/>
+      <c r="I141" s="23"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="25">
+        <v>17</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="26"/>
+      <c r="F142" s="27">
+        <v>1</v>
+      </c>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="25">
+        <v>18</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="22"/>
+      <c r="F143" s="23">
+        <v>2</v>
+      </c>
+      <c r="G143" s="23"/>
+      <c r="H143" s="23"/>
+      <c r="I143" s="23"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="21">
+        <v>19</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="26"/>
+      <c r="F144" s="27">
+        <v>2</v>
+      </c>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="25">
+        <v>20</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="22"/>
+      <c r="F145" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="23"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="25">
+        <v>21</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="26"/>
+      <c r="F146" s="27">
+        <v>2</v>
+      </c>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F199" sqref="F199"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5333,7 +10154,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -10166,7 +14987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U39"/>
   <sheetViews>
@@ -10637,7 +15458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U46"/>
   <sheetViews>
